--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/Filter.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/Filter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C974F35-0683-4933-A6B8-5753BD46B301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="14820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +87,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -147,19 +148,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Moneda" xfId="3" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -179,7 +180,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -213,21 +214,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Year"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Month"/>
-    <tableColumn id="4" name="RoomType"/>
-    <tableColumn id="5" name="Revenue" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Month"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RoomType"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Revenue" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -546,23 +547,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -596,7 +597,7 @@
         <v>90005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -613,7 +614,7 @@
         <v>104397</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -630,7 +631,7 @@
         <v>53546</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -647,7 +648,7 @@
         <v>103543</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -664,7 +665,7 @@
         <v>111353</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -681,7 +682,7 @@
         <v>94292</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -698,7 +699,7 @@
         <v>112334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -715,7 +716,7 @@
         <v>68446</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -732,7 +733,7 @@
         <v>82581</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -749,7 +750,7 @@
         <v>103366</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -766,7 +767,7 @@
         <v>82564</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -783,7 +784,7 @@
         <v>105459</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -800,7 +801,7 @@
         <v>94910</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2015</v>
       </c>
@@ -817,7 +818,7 @@
         <v>133914</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -834,7 +835,7 @@
         <v>80115</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -851,7 +852,7 @@
         <v>98960</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -868,7 +869,7 @@
         <v>93664</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -885,7 +886,7 @@
         <v>98108</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -902,7 +903,7 @@
         <v>73953</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -919,7 +920,7 @@
         <v>76590</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -936,7 +937,7 @@
         <v>152078</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2015</v>
       </c>
@@ -953,7 +954,7 @@
         <v>78984</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2015</v>
       </c>
@@ -970,7 +971,7 @@
         <v>134740</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -987,7 +988,7 @@
         <v>98717</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2016</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>134521</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>85955</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>129781</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2016</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>101496</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2016</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>89009</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2016</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>123314</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2016</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>130748</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2016</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>107992</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2016</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>66601</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2016</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>74993</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>109970</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>132586</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2016</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>96206</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2016</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>140144</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2016</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>151357</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>100182</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2016</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>130772</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -1293,7 +1294,7 @@
         <v>128983</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2016</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>88728</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2016</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>132253</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2016</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>134305</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2016</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>192678</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>117500</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2016</v>
       </c>
